--- a/teamContributions.xlsx
+++ b/teamContributions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/22356053_studentmail_ul_ie/Documents/Year 2/CS4013 - Object Orientated Development/UL-Student-Record-System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{E33900B6-0768-43BB-ACDD-D2B520B8A2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB5C396-9461-4EA3-B165-402411175EF7}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{E33900B6-0768-43BB-ACDD-D2B520B8A2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2899141-17A2-4AE8-A88E-A74A899659BE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,16 +256,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -282,6 +284,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,24 +604,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1049,13 +1055,13 @@
       <c r="A34" s="9">
         <v>45241</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="3"/>
@@ -1064,13 +1070,13 @@
       <c r="A35" s="9">
         <v>45242</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="3"/>
@@ -1079,13 +1085,13 @@
       <c r="A36" s="9">
         <v>45244</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="3"/>
@@ -1094,13 +1100,13 @@
       <c r="A37" s="9">
         <v>45245</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="3"/>
@@ -1109,13 +1115,13 @@
       <c r="A38" s="9">
         <v>45249</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F38" s="3"/>
@@ -1124,13 +1130,13 @@
       <c r="A39" s="9">
         <v>45250</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F39" s="3"/>
@@ -1139,13 +1145,13 @@
       <c r="A40" s="9">
         <v>45252</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F40" s="3"/>
@@ -1154,13 +1160,13 @@
       <c r="A41" s="9">
         <v>45255</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F41" s="3"/>
@@ -1169,13 +1175,13 @@
       <c r="A42" s="9">
         <v>45257</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F42" s="3"/>

--- a/teamContributions.xlsx
+++ b/teamContributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/22356053_studentmail_ul_ie/Documents/Year 2/CS4013 - Object Orientated Development/UL-Student-Record-System/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LM174\CS4013\UL-Student-Record-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{E33900B6-0768-43BB-ACDD-D2B520B8A2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2899141-17A2-4AE8-A88E-A74A899659BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBA219B-1509-4462-9DD3-BA5850EB4323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,14 +259,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -284,10 +284,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,7 +586,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,24 +600,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -895,7 +891,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>0.95</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.05</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="1"/>
@@ -1052,7 +1051,7 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>45241</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1067,7 +1066,7 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>45242</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1082,7 +1081,7 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>45244</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1097,7 +1096,7 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>45245</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -1112,7 +1111,7 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>45249</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1127,7 +1126,7 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>45250</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -1142,7 +1141,7 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>45252</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -1157,7 +1156,7 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>45255</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -1172,7 +1171,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>45257</v>
       </c>
       <c r="B42" s="6" t="s">

--- a/teamContributions.xlsx
+++ b/teamContributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LM174\CS4013\UL-Student-Record-System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/22356053_studentmail_ul_ie/Documents/Year 2/CS4013 - Object Orientated Development/UL-Student-Record-System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBA219B-1509-4462-9DD3-BA5850EB4323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{1FBA219B-1509-4462-9DD3-BA5850EB4323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A991CD10-AED8-4071-9ED8-35CF2745EFF2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t xml:space="preserve">This contributions document must be agreed by all team members </t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>2hr</t>
+  </si>
+  <si>
+    <t>teamContributions.xlsx</t>
+  </si>
+  <si>
+    <t>HelpFile.pdf</t>
   </si>
 </sst>
 </file>
@@ -583,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +656,7 @@
         <v>0.3</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="3">
         <v>0.25</v>
@@ -670,7 +676,7 @@
         <v>0.2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E5" s="3">
         <v>0.25</v>
@@ -794,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ref="F13:F28" si="1">SUM(B13:E13)</f>
+        <f t="shared" ref="F13:F30" si="1">SUM(B13:E13)</f>
         <v>1</v>
       </c>
     </row>
@@ -891,10 +897,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="3">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="D21" s="3">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="1"/>
@@ -975,120 +981,124 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>0.7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.1</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>45241</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
-        <v>45242</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>45244</v>
+        <v>45241</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>39</v>
@@ -1097,13 +1107,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
-        <v>45245</v>
+        <v>45242</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>39</v>
@@ -1112,13 +1122,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>45249</v>
+        <v>45244</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>39</v>
@@ -1127,13 +1137,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>45250</v>
+        <v>45245</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>39</v>
@@ -1142,13 +1152,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
-        <v>45252</v>
+        <v>45249</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>39</v>
@@ -1157,13 +1167,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
-        <v>45255</v>
+        <v>45250</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>39</v>
@@ -1172,13 +1182,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
-        <v>45257</v>
+        <v>45252</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>39</v>
@@ -1186,9 +1196,33 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1202,6 +1236,12 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1209,7 +1249,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{A1C5A884-DFCC-445B-B731-2667FC11E43E}"/>
+    <hyperlink ref="B32" r:id="rId1" xr:uid="{A1C5A884-DFCC-445B-B731-2667FC11E43E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
